--- a/test/model/UserTestCases.xlsx
+++ b/test/model/UserTestCases.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Music\event_catering_management\test\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DA21301-E909-4D0C-A564-60BD16A99B23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A89825D9-8EB2-41EF-8A24-184F3B4B0B8C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1031" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="147">
   <si>
     <t>Test Case Number</t>
   </si>
@@ -812,8 +812,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B73" workbookViewId="0">
-      <selection activeCell="P91" sqref="P91"/>
+    <sheetView tabSelected="1" topLeftCell="Q66" workbookViewId="0">
+      <selection activeCell="S86" sqref="S86:AC86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5133,12 +5133,6 @@
       <c r="D85" t="s">
         <v>49</v>
       </c>
-      <c r="E85" t="s">
-        <v>31</v>
-      </c>
-      <c r="F85" t="s">
-        <v>32</v>
-      </c>
       <c r="G85" t="s">
         <v>74</v>
       </c>
@@ -5146,25 +5140,41 @@
         <v>1001765834</v>
       </c>
       <c r="I85">
-        <v>4692580560</v>
-      </c>
-      <c r="J85" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="K85">
-        <v>848</v>
-      </c>
-      <c r="L85" t="s">
-        <v>34</v>
-      </c>
-      <c r="M85" t="s">
-        <v>35</v>
-      </c>
-      <c r="N85" t="s">
-        <v>36</v>
-      </c>
+        <v>469258056</v>
+      </c>
+      <c r="J85" s="4"/>
       <c r="O85">
-        <v>76013</v>
+        <v>7601</v>
+      </c>
+      <c r="P85" t="s">
+        <v>39</v>
+      </c>
+      <c r="S85" t="s">
+        <v>90</v>
+      </c>
+      <c r="T85" t="s">
+        <v>101</v>
+      </c>
+      <c r="W85" t="s">
+        <v>66</v>
+      </c>
+      <c r="X85" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z85" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA85" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB85" t="s">
+        <v>119</v>
+      </c>
+      <c r="AC85" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="86" spans="1:29" x14ac:dyDescent="0.3">
@@ -5174,44 +5184,57 @@
       <c r="B86" t="s">
         <v>115</v>
       </c>
-      <c r="C86" t="s">
-        <v>44</v>
-      </c>
       <c r="D86" t="s">
         <v>49</v>
       </c>
-      <c r="E86" t="s">
-        <v>31</v>
-      </c>
-      <c r="F86" t="s">
-        <v>32</v>
-      </c>
       <c r="G86" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H86" s="3">
         <v>1001765834</v>
       </c>
       <c r="I86">
-        <v>4692580560</v>
-      </c>
-      <c r="J86" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="K86">
-        <v>848</v>
-      </c>
-      <c r="L86" t="s">
-        <v>34</v>
-      </c>
-      <c r="M86" t="s">
-        <v>35</v>
-      </c>
-      <c r="N86" t="s">
-        <v>36</v>
-      </c>
+        <v>469258056</v>
+      </c>
+      <c r="J86" s="4"/>
       <c r="O86">
-        <v>76013</v>
+        <v>7601</v>
+      </c>
+      <c r="P86" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q86" t="s">
+        <v>37</v>
+      </c>
+      <c r="S86" t="s">
+        <v>90</v>
+      </c>
+      <c r="T86" t="s">
+        <v>101</v>
+      </c>
+      <c r="U86" t="s">
+        <v>87</v>
+      </c>
+      <c r="W86" t="s">
+        <v>66</v>
+      </c>
+      <c r="X86" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y86" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z86" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA86" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB86" t="s">
+        <v>119</v>
+      </c>
+      <c r="AC86" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="87" spans="1:29" x14ac:dyDescent="0.3">

--- a/test/model/UserTestCases.xlsx
+++ b/test/model/UserTestCases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Music\event_catering_management\test\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A89825D9-8EB2-41EF-8A24-184F3B4B0B8C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DBCF7BE-23E9-4AFF-ACA8-188A1B8B043A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1051" uniqueCount="148">
   <si>
     <t>Test Case Number</t>
   </si>
@@ -466,6 +466,9 @@
   </si>
   <si>
     <t>Incorrect password</t>
+  </si>
+  <si>
+    <t>changeRole</t>
   </si>
 </sst>
 </file>
@@ -810,10 +813,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE91"/>
+  <dimension ref="A1:AE92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q66" workbookViewId="0">
-      <selection activeCell="S86" sqref="S86:AC86"/>
+    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="A94" sqref="A94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5203,9 +5206,6 @@
       <c r="P86" t="s">
         <v>39</v>
       </c>
-      <c r="Q86" t="s">
-        <v>37</v>
-      </c>
       <c r="S86" t="s">
         <v>90</v>
       </c>
@@ -5490,6 +5490,59 @@
       </c>
       <c r="R91" t="s">
         <v>117</v>
+      </c>
+    </row>
+    <row r="92" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>89</v>
+      </c>
+      <c r="B92" t="s">
+        <v>147</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D92" t="s">
+        <v>118</v>
+      </c>
+      <c r="E92" t="s">
+        <v>31</v>
+      </c>
+      <c r="F92" t="s">
+        <v>32</v>
+      </c>
+      <c r="G92" t="s">
+        <v>75</v>
+      </c>
+      <c r="H92">
+        <v>1001765834</v>
+      </c>
+      <c r="I92">
+        <v>4692580560</v>
+      </c>
+      <c r="J92" t="s">
+        <v>33</v>
+      </c>
+      <c r="K92">
+        <v>848</v>
+      </c>
+      <c r="L92" t="s">
+        <v>34</v>
+      </c>
+      <c r="M92" t="s">
+        <v>35</v>
+      </c>
+      <c r="N92" t="s">
+        <v>36</v>
+      </c>
+      <c r="O92">
+        <v>76013</v>
+      </c>
+      <c r="P92" t="s">
+        <v>39</v>
+      </c>
+      <c r="U92" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/test/model/UserTestCases.xlsx
+++ b/test/model/UserTestCases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Music\event_catering_management\test\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DBCF7BE-23E9-4AFF-ACA8-188A1B8B043A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55013D16-D3C1-4F91-B4E3-484FE063B29C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1051" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1173" uniqueCount="158">
   <si>
     <t>Test Case Number</t>
   </si>
@@ -276,9 +276,6 @@
     <t>City cannot contain a number or special characters</t>
   </si>
   <si>
-    <t>T1</t>
-  </si>
-  <si>
     <t>TXA</t>
   </si>
   <si>
@@ -315,160 +312,193 @@
     <t>Bhoooooooooooooooooooooooooooo</t>
   </si>
   <si>
+    <t>First name cannot contain a number or special characters</t>
+  </si>
+  <si>
+    <t>shah</t>
+  </si>
+  <si>
+    <t>Sh</t>
+  </si>
+  <si>
+    <t>Last Name can not be blank.</t>
+  </si>
+  <si>
+    <t>Last name must start with a capital letter</t>
+  </si>
+  <si>
+    <t>Last name length must be &gt;2 and &lt;30</t>
+  </si>
+  <si>
+    <t>Last name cannot contain a number or special characters</t>
+  </si>
+  <si>
+    <t>UTA ID can not be blank.</t>
+  </si>
+  <si>
+    <t>100Bhumit</t>
+  </si>
+  <si>
+    <t>UTA Id must be numeric</t>
+  </si>
+  <si>
+    <t>UTA Id must have a length of 10</t>
+  </si>
+  <si>
+    <t>UTA ID already in use.</t>
+  </si>
+  <si>
+    <t>Zipcode must be numeric</t>
+  </si>
+  <si>
+    <t>Zipcode must have a length of 5</t>
+  </si>
+  <si>
+    <t>7601B</t>
+  </si>
+  <si>
+    <t>searchUser</t>
+  </si>
+  <si>
+    <t>modifyUserProfile</t>
+  </si>
+  <si>
+    <t>userProfile</t>
+  </si>
+  <si>
+    <t>login</t>
+  </si>
+  <si>
+    <t>Password cannot be blank</t>
+  </si>
+  <si>
+    <t>Bhumit!23</t>
+  </si>
+  <si>
+    <t>State Cannot be Empty.</t>
+  </si>
+  <si>
+    <t>State must be non numeric.</t>
+  </si>
+  <si>
+    <t>State must be 2 letter abbreviation.</t>
+  </si>
+  <si>
+    <t>Bhu</t>
+  </si>
+  <si>
+    <t>Bhooooooooooooooooooooooooooo</t>
+  </si>
+  <si>
+    <t>Shoooooooooooooooooooooooooooo</t>
+  </si>
+  <si>
+    <t>Sha</t>
+  </si>
+  <si>
+    <t>Shooooooooooooooooooooooooooo</t>
+  </si>
+  <si>
+    <t>bxs58</t>
+  </si>
+  <si>
+    <t>asG!1aaaaaaaaaaaaaaaaaaaaaaaaa</t>
+  </si>
+  <si>
+    <t>aa@.com</t>
+  </si>
+  <si>
+    <t>aaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaa@.com</t>
+  </si>
+  <si>
+    <t>aaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaa@.com</t>
+  </si>
+  <si>
+    <t>aaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaa</t>
+  </si>
+  <si>
+    <t>Arl</t>
+  </si>
+  <si>
+    <t>Agisbsjcbhsbchbsdddddcdcddbbh</t>
+  </si>
+  <si>
+    <t>bxs11111111111111111</t>
+  </si>
+  <si>
+    <t>asG!1aaaaaaaaaaaaaaaaaaaaaaaa</t>
+  </si>
+  <si>
+    <t>asd!234G</t>
+  </si>
+  <si>
+    <t>asd!24G</t>
+  </si>
+  <si>
+    <t>aaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaa</t>
+  </si>
+  <si>
+    <t>Agisbsjcbhsbchbsdddddcdcddbbhh</t>
+  </si>
+  <si>
+    <t>hbdasdfd@1</t>
+  </si>
+  <si>
+    <t>A@AAAA1</t>
+  </si>
+  <si>
+    <t>Street name length must be &gt;0 and &lt;40.</t>
+  </si>
+  <si>
+    <t>Street name must be non-numeric</t>
+  </si>
+  <si>
+    <t>Username not in the database.</t>
+  </si>
+  <si>
+    <t>Incorrect password</t>
+  </si>
+  <si>
+    <t>changeRole</t>
+  </si>
+  <si>
+    <t>469258056/</t>
+  </si>
+  <si>
+    <t>469258056:</t>
+  </si>
+  <si>
     <t>Bhu1@</t>
   </si>
   <si>
-    <t>First name cannot contain a number or special characters</t>
-  </si>
-  <si>
-    <t>shah</t>
-  </si>
-  <si>
-    <t>Sh</t>
-  </si>
-  <si>
-    <t>Sha!</t>
-  </si>
-  <si>
-    <t>Last Name can not be blank.</t>
-  </si>
-  <si>
-    <t>Last name must start with a capital letter</t>
-  </si>
-  <si>
-    <t>Last name length must be &gt;2 and &lt;30</t>
-  </si>
-  <si>
-    <t>Last name cannot contain a number or special characters</t>
-  </si>
-  <si>
-    <t>UTA ID can not be blank.</t>
-  </si>
-  <si>
-    <t>100Bhumit</t>
-  </si>
-  <si>
-    <t>UTA Id must be numeric</t>
-  </si>
-  <si>
-    <t>UTA Id must have a length of 10</t>
-  </si>
-  <si>
-    <t>UTA ID already in use.</t>
-  </si>
-  <si>
-    <t>Zipcode must be numeric</t>
-  </si>
-  <si>
-    <t>Zipcode must have a length of 5</t>
-  </si>
-  <si>
-    <t>7601B</t>
-  </si>
-  <si>
-    <t>searchUser</t>
-  </si>
-  <si>
-    <t>modifyUserProfile</t>
-  </si>
-  <si>
-    <t>userProfile</t>
-  </si>
-  <si>
-    <t>login</t>
-  </si>
-  <si>
-    <t>Password cannot be blank</t>
-  </si>
-  <si>
-    <t>Bhumit!23</t>
-  </si>
-  <si>
-    <t>State Cannot be Empty.</t>
-  </si>
-  <si>
-    <t>State must be non numeric.</t>
-  </si>
-  <si>
-    <t>State must be 2 letter abbreviation.</t>
-  </si>
-  <si>
-    <t>Bhu</t>
-  </si>
-  <si>
-    <t>Bhooooooooooooooooooooooooooo</t>
-  </si>
-  <si>
-    <t>Shoooooooooooooooooooooooooooo</t>
-  </si>
-  <si>
-    <t>Sha</t>
-  </si>
-  <si>
-    <t>Shooooooooooooooooooooooooooo</t>
-  </si>
-  <si>
-    <t>bxs58</t>
-  </si>
-  <si>
-    <t>asG!1aaaaaaaaaaaaaaaaaaaaaaaaa</t>
-  </si>
-  <si>
-    <t>aa@.com</t>
-  </si>
-  <si>
-    <t>aaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaa@.com</t>
-  </si>
-  <si>
-    <t>aaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaa@.com</t>
-  </si>
-  <si>
-    <t>aaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaa</t>
-  </si>
-  <si>
-    <t>Arl</t>
-  </si>
-  <si>
-    <t>Agisbsjcbhsbchbsdddddcdcddbbh</t>
-  </si>
-  <si>
-    <t>bxs11111111111111111</t>
-  </si>
-  <si>
-    <t>asG!1aaaaaaaaaaaaaaaaaaaaaaaa</t>
-  </si>
-  <si>
-    <t>asd!234G</t>
-  </si>
-  <si>
-    <t>asd!24G</t>
-  </si>
-  <si>
-    <t>aaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaa</t>
-  </si>
-  <si>
-    <t>Agisbsjcbhsbchbsdddddcdcddbbhh</t>
-  </si>
-  <si>
-    <t>hbdasdfd@1</t>
-  </si>
-  <si>
-    <t>A@AAAA1</t>
-  </si>
-  <si>
-    <t>Street name length must be &gt;0 and &lt;40.</t>
-  </si>
-  <si>
-    <t>Street name must be non-numeric</t>
-  </si>
-  <si>
-    <t>Username not in the database.</t>
-  </si>
-  <si>
-    <t>Incorrect password</t>
-  </si>
-  <si>
-    <t>changeRole</t>
+    <t>Sha@</t>
+  </si>
+  <si>
+    <t>Sha{</t>
+  </si>
+  <si>
+    <t>Sha[</t>
+  </si>
+  <si>
+    <t>Sha`</t>
+  </si>
+  <si>
+    <t>Sha/</t>
+  </si>
+  <si>
+    <t>Sha:</t>
+  </si>
+  <si>
+    <t>T@</t>
+  </si>
+  <si>
+    <t>T[</t>
+  </si>
+  <si>
+    <t>T`</t>
+  </si>
+  <si>
+    <t>T{</t>
   </si>
 </sst>
 </file>
@@ -813,16 +843,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE92"/>
+  <dimension ref="A1:AE102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="A94" sqref="A94"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="N51" sqref="N51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="16.77734375" customWidth="1"/>
     <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" customWidth="1"/>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22" customWidth="1"/>
     <col min="10" max="10" width="20.21875" customWidth="1"/>
@@ -1135,7 +1166,7 @@
         <v>29</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D6" t="s">
         <v>30</v>
@@ -1388,7 +1419,7 @@
         <v>29</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D11" t="s">
         <v>30</v>
@@ -1438,7 +1469,7 @@
         <v>44</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E12" t="s">
         <v>31</v>
@@ -1544,7 +1575,7 @@
         <v>44</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E14" t="s">
         <v>31</v>
@@ -1650,7 +1681,7 @@
         <v>44</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E16" t="s">
         <v>31</v>
@@ -1697,7 +1728,7 @@
         <v>44</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E17" t="s">
         <v>31</v>
@@ -1750,7 +1781,7 @@
         <v>44</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E18" t="s">
         <v>31</v>
@@ -1803,7 +1834,7 @@
         <v>44</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E19" t="s">
         <v>31</v>
@@ -2276,7 +2307,7 @@
         <v>4692580560</v>
       </c>
       <c r="J28" s="6" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="K28">
         <v>848</v>
@@ -2323,7 +2354,7 @@
         <v>4692580560</v>
       </c>
       <c r="J29" s="6" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="K29">
         <v>848</v>
@@ -2370,7 +2401,7 @@
         <v>4692580560</v>
       </c>
       <c r="J30" s="6" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="K30">
         <v>848</v>
@@ -2746,7 +2777,7 @@
         <v>39</v>
       </c>
       <c r="Z37" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.3">
@@ -2784,7 +2815,7 @@
         <v>848</v>
       </c>
       <c r="L38" s="5" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="M38" t="s">
         <v>35</v>
@@ -2799,7 +2830,7 @@
         <v>39</v>
       </c>
       <c r="Z38" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.3">
@@ -2837,7 +2868,7 @@
         <v>848</v>
       </c>
       <c r="L39" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="M39" t="s">
         <v>35</v>
@@ -2899,7 +2930,7 @@
         <v>39</v>
       </c>
       <c r="Z40" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.3">
@@ -3144,7 +3175,7 @@
         <v>34</v>
       </c>
       <c r="M45" s="5" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="N45" t="s">
         <v>36</v>
@@ -3191,7 +3222,7 @@
         <v>34</v>
       </c>
       <c r="M46" s="5" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="N46" t="s">
         <v>36</v>
@@ -3238,7 +3269,7 @@
         <v>34</v>
       </c>
       <c r="M47" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="N47" t="s">
         <v>36</v>
@@ -3401,7 +3432,7 @@
         <v>39</v>
       </c>
       <c r="AB50" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="51" spans="1:28" x14ac:dyDescent="0.3">
@@ -3444,8 +3475,8 @@
       <c r="M51" t="s">
         <v>35</v>
       </c>
-      <c r="N51" s="5" t="s">
-        <v>83</v>
+      <c r="N51" s="6" t="s">
+        <v>154</v>
       </c>
       <c r="O51">
         <v>76013</v>
@@ -3454,7 +3485,7 @@
         <v>39</v>
       </c>
       <c r="AB51" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="52" spans="1:28" x14ac:dyDescent="0.3">
@@ -3498,7 +3529,7 @@
         <v>35</v>
       </c>
       <c r="N52" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O52">
         <v>76013</v>
@@ -3507,7 +3538,7 @@
         <v>39</v>
       </c>
       <c r="AB52" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="53" spans="1:28" x14ac:dyDescent="0.3">
@@ -3551,16 +3582,16 @@
         <v>35</v>
       </c>
       <c r="N53" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="O53">
+        <v>76013</v>
+      </c>
+      <c r="P53" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB53" t="s">
         <v>85</v>
-      </c>
-      <c r="O53">
-        <v>76013</v>
-      </c>
-      <c r="P53" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB53" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="54" spans="1:28" x14ac:dyDescent="0.3">
@@ -3660,7 +3691,7 @@
         <v>39</v>
       </c>
       <c r="U55" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="56" spans="1:28" x14ac:dyDescent="0.3">
@@ -3730,37 +3761,37 @@
         <v>32</v>
       </c>
       <c r="G57" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="H57">
+        <v>1001765834</v>
+      </c>
+      <c r="I57">
+        <v>4692580560</v>
+      </c>
+      <c r="J57" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K57">
+        <v>848</v>
+      </c>
+      <c r="L57" t="s">
+        <v>34</v>
+      </c>
+      <c r="M57" t="s">
+        <v>35</v>
+      </c>
+      <c r="N57" t="s">
+        <v>36</v>
+      </c>
+      <c r="O57">
+        <v>76013</v>
+      </c>
+      <c r="P57" t="s">
+        <v>39</v>
+      </c>
+      <c r="U57" t="s">
         <v>88</v>
-      </c>
-      <c r="H57">
-        <v>1001765834</v>
-      </c>
-      <c r="I57">
-        <v>4692580560</v>
-      </c>
-      <c r="J57" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="K57">
-        <v>848</v>
-      </c>
-      <c r="L57" t="s">
-        <v>34</v>
-      </c>
-      <c r="M57" t="s">
-        <v>35</v>
-      </c>
-      <c r="N57" t="s">
-        <v>36</v>
-      </c>
-      <c r="O57">
-        <v>76013</v>
-      </c>
-      <c r="P57" t="s">
-        <v>39</v>
-      </c>
-      <c r="U57" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="58" spans="1:28" x14ac:dyDescent="0.3">
@@ -3858,7 +3889,7 @@
         <v>39</v>
       </c>
       <c r="S59" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="60" spans="1:28" x14ac:dyDescent="0.3">
@@ -3875,43 +3906,43 @@
         <v>49</v>
       </c>
       <c r="E60" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="F60" t="s">
+        <v>32</v>
+      </c>
+      <c r="G60" t="s">
+        <v>74</v>
+      </c>
+      <c r="H60">
+        <v>1001765834</v>
+      </c>
+      <c r="I60">
+        <v>4692580560</v>
+      </c>
+      <c r="J60" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K60">
+        <v>848</v>
+      </c>
+      <c r="L60" t="s">
+        <v>34</v>
+      </c>
+      <c r="M60" t="s">
+        <v>35</v>
+      </c>
+      <c r="N60" t="s">
+        <v>36</v>
+      </c>
+      <c r="O60">
+        <v>76013</v>
+      </c>
+      <c r="P60" t="s">
+        <v>39</v>
+      </c>
+      <c r="S60" t="s">
         <v>91</v>
-      </c>
-      <c r="F60" t="s">
-        <v>32</v>
-      </c>
-      <c r="G60" t="s">
-        <v>74</v>
-      </c>
-      <c r="H60">
-        <v>1001765834</v>
-      </c>
-      <c r="I60">
-        <v>4692580560</v>
-      </c>
-      <c r="J60" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="K60">
-        <v>848</v>
-      </c>
-      <c r="L60" t="s">
-        <v>34</v>
-      </c>
-      <c r="M60" t="s">
-        <v>35</v>
-      </c>
-      <c r="N60" t="s">
-        <v>36</v>
-      </c>
-      <c r="O60">
-        <v>76013</v>
-      </c>
-      <c r="P60" t="s">
-        <v>39</v>
-      </c>
-      <c r="S60" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="61" spans="1:28" x14ac:dyDescent="0.3">
@@ -3928,43 +3959,43 @@
         <v>49</v>
       </c>
       <c r="E61" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="F61" t="s">
+        <v>32</v>
+      </c>
+      <c r="G61" t="s">
+        <v>74</v>
+      </c>
+      <c r="H61">
+        <v>1001765834</v>
+      </c>
+      <c r="I61">
+        <v>4692580560</v>
+      </c>
+      <c r="J61" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K61">
+        <v>848</v>
+      </c>
+      <c r="L61" t="s">
+        <v>34</v>
+      </c>
+      <c r="M61" t="s">
+        <v>35</v>
+      </c>
+      <c r="N61" t="s">
+        <v>36</v>
+      </c>
+      <c r="O61">
+        <v>76013</v>
+      </c>
+      <c r="P61" t="s">
+        <v>39</v>
+      </c>
+      <c r="S61" t="s">
         <v>93</v>
-      </c>
-      <c r="F61" t="s">
-        <v>32</v>
-      </c>
-      <c r="G61" t="s">
-        <v>74</v>
-      </c>
-      <c r="H61">
-        <v>1001765834</v>
-      </c>
-      <c r="I61">
-        <v>4692580560</v>
-      </c>
-      <c r="J61" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="K61">
-        <v>848</v>
-      </c>
-      <c r="L61" t="s">
-        <v>34</v>
-      </c>
-      <c r="M61" t="s">
-        <v>35</v>
-      </c>
-      <c r="N61" t="s">
-        <v>36</v>
-      </c>
-      <c r="O61">
-        <v>76013</v>
-      </c>
-      <c r="P61" t="s">
-        <v>39</v>
-      </c>
-      <c r="S61" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="62" spans="1:28" x14ac:dyDescent="0.3">
@@ -3981,7 +4012,7 @@
         <v>49</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F62" t="s">
         <v>32</v>
@@ -4028,7 +4059,7 @@
         <v>49</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F63" t="s">
         <v>32</v>
@@ -4064,7 +4095,7 @@
         <v>39</v>
       </c>
       <c r="S63" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="64" spans="1:28" x14ac:dyDescent="0.3">
@@ -4081,7 +4112,7 @@
         <v>49</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F64" t="s">
         <v>32</v>
@@ -4128,7 +4159,7 @@
         <v>49</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>96</v>
+        <v>147</v>
       </c>
       <c r="F65" t="s">
         <v>32</v>
@@ -4164,7 +4195,7 @@
         <v>39</v>
       </c>
       <c r="S65" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="66" spans="1:29" x14ac:dyDescent="0.3">
@@ -4262,7 +4293,7 @@
         <v>39</v>
       </c>
       <c r="T67" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="68" spans="1:29" x14ac:dyDescent="0.3">
@@ -4282,7 +4313,7 @@
         <v>31</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G68" t="s">
         <v>74</v>
@@ -4315,7 +4346,7 @@
         <v>39</v>
       </c>
       <c r="T68" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="69" spans="1:29" x14ac:dyDescent="0.3">
@@ -4335,7 +4366,7 @@
         <v>31</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G69" t="s">
         <v>74</v>
@@ -4368,7 +4399,7 @@
         <v>39</v>
       </c>
       <c r="T69" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="70" spans="1:29" x14ac:dyDescent="0.3">
@@ -4388,7 +4419,7 @@
         <v>31</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G70" t="s">
         <v>74</v>
@@ -4435,7 +4466,7 @@
         <v>31</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G71" t="s">
         <v>74</v>
@@ -4468,7 +4499,7 @@
         <v>39</v>
       </c>
       <c r="T71" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="72" spans="1:29" x14ac:dyDescent="0.3">
@@ -4488,7 +4519,7 @@
         <v>31</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G72" t="s">
         <v>74</v>
@@ -4534,8 +4565,8 @@
       <c r="E73" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F73" s="5" t="s">
-        <v>100</v>
+      <c r="F73" s="6" t="s">
+        <v>148</v>
       </c>
       <c r="G73" t="s">
         <v>74</v>
@@ -4568,7 +4599,7 @@
         <v>39</v>
       </c>
       <c r="T73" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="74" spans="1:29" x14ac:dyDescent="0.3">
@@ -4666,7 +4697,7 @@
         <v>39</v>
       </c>
       <c r="V75" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="76" spans="1:29" x14ac:dyDescent="0.3">
@@ -4692,7 +4723,7 @@
         <v>74</v>
       </c>
       <c r="H76" s="5" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="I76">
         <v>4692580560</v>
@@ -4719,7 +4750,7 @@
         <v>39</v>
       </c>
       <c r="V76" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="77" spans="1:29" x14ac:dyDescent="0.3">
@@ -4772,7 +4803,7 @@
         <v>39</v>
       </c>
       <c r="V77" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="78" spans="1:29" x14ac:dyDescent="0.3">
@@ -4825,7 +4856,7 @@
         <v>39</v>
       </c>
       <c r="V78" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="79" spans="1:29" x14ac:dyDescent="0.3">
@@ -4919,13 +4950,13 @@
         <v>36</v>
       </c>
       <c r="O80" s="5" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="P80" t="s">
         <v>39</v>
       </c>
       <c r="AC80" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="81" spans="1:29" x14ac:dyDescent="0.3">
@@ -4978,7 +5009,7 @@
         <v>39</v>
       </c>
       <c r="AC81" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="82" spans="1:29" x14ac:dyDescent="0.3">
@@ -5078,7 +5109,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C84" t="s">
         <v>44</v>
@@ -5120,7 +5151,7 @@
         <v>39</v>
       </c>
       <c r="T84" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="85" spans="1:29" x14ac:dyDescent="0.3">
@@ -5128,7 +5159,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C85" t="s">
         <v>44</v>
@@ -5153,10 +5184,10 @@
         <v>39</v>
       </c>
       <c r="S85" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="T85" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="W85" t="s">
         <v>66</v>
@@ -5168,16 +5199,16 @@
         <v>71</v>
       </c>
       <c r="Z85" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="AA85" t="s">
         <v>76</v>
       </c>
       <c r="AB85" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="AC85" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="86" spans="1:29" x14ac:dyDescent="0.3">
@@ -5185,7 +5216,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D86" t="s">
         <v>49</v>
@@ -5207,13 +5238,13 @@
         <v>39</v>
       </c>
       <c r="S86" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="T86" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="U86" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="W86" t="s">
         <v>66</v>
@@ -5225,16 +5256,16 @@
         <v>71</v>
       </c>
       <c r="Z86" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="AA86" t="s">
         <v>76</v>
       </c>
       <c r="AB86" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="AC86" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="87" spans="1:29" x14ac:dyDescent="0.3">
@@ -5242,7 +5273,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C87" s="5"/>
       <c r="D87" t="s">
@@ -5293,7 +5324,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C88" s="5" t="s">
         <v>45</v>
@@ -5338,7 +5369,7 @@
         <v>39</v>
       </c>
       <c r="R88" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="89" spans="1:29" x14ac:dyDescent="0.3">
@@ -5346,7 +5377,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C89" s="5" t="s">
         <v>44</v>
@@ -5391,7 +5422,7 @@
         <v>39</v>
       </c>
       <c r="Q89" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="90" spans="1:29" x14ac:dyDescent="0.3">
@@ -5399,13 +5430,13 @@
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C90" s="5" t="s">
         <v>45</v>
       </c>
       <c r="D90" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E90" t="s">
         <v>31</v>
@@ -5446,7 +5477,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C91" s="5" t="s">
         <v>45</v>
@@ -5489,21 +5520,21 @@
         <v>39</v>
       </c>
       <c r="R91" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="92" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A92">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C92" s="5" t="s">
         <v>45</v>
       </c>
       <c r="D92" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E92" t="s">
         <v>31</v>
@@ -5542,7 +5573,537 @@
         <v>39</v>
       </c>
       <c r="U92" t="s">
-        <v>87</v>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="93" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>91</v>
+      </c>
+      <c r="B93" t="s">
+        <v>29</v>
+      </c>
+      <c r="C93" t="s">
+        <v>44</v>
+      </c>
+      <c r="D93" t="s">
+        <v>49</v>
+      </c>
+      <c r="E93" t="s">
+        <v>31</v>
+      </c>
+      <c r="F93" t="s">
+        <v>32</v>
+      </c>
+      <c r="G93" t="s">
+        <v>74</v>
+      </c>
+      <c r="H93">
+        <v>1001765834</v>
+      </c>
+      <c r="I93" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="J93" t="s">
+        <v>33</v>
+      </c>
+      <c r="K93">
+        <v>848</v>
+      </c>
+      <c r="L93" t="s">
+        <v>34</v>
+      </c>
+      <c r="M93" t="s">
+        <v>35</v>
+      </c>
+      <c r="N93" t="s">
+        <v>36</v>
+      </c>
+      <c r="O93">
+        <v>76013</v>
+      </c>
+      <c r="P93" t="s">
+        <v>39</v>
+      </c>
+      <c r="W93" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="94" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>92</v>
+      </c>
+      <c r="B94" t="s">
+        <v>29</v>
+      </c>
+      <c r="C94" t="s">
+        <v>44</v>
+      </c>
+      <c r="D94" t="s">
+        <v>49</v>
+      </c>
+      <c r="E94" t="s">
+        <v>31</v>
+      </c>
+      <c r="F94" t="s">
+        <v>32</v>
+      </c>
+      <c r="G94" t="s">
+        <v>74</v>
+      </c>
+      <c r="H94">
+        <v>1001765834</v>
+      </c>
+      <c r="I94" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="J94" t="s">
+        <v>33</v>
+      </c>
+      <c r="K94">
+        <v>848</v>
+      </c>
+      <c r="L94" t="s">
+        <v>34</v>
+      </c>
+      <c r="M94" t="s">
+        <v>35</v>
+      </c>
+      <c r="N94" t="s">
+        <v>36</v>
+      </c>
+      <c r="O94">
+        <v>76013</v>
+      </c>
+      <c r="P94" t="s">
+        <v>39</v>
+      </c>
+      <c r="W94" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="95" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>93</v>
+      </c>
+      <c r="B95" t="s">
+        <v>29</v>
+      </c>
+      <c r="C95" t="s">
+        <v>44</v>
+      </c>
+      <c r="D95" t="s">
+        <v>49</v>
+      </c>
+      <c r="E95" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F95" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="G95" t="s">
+        <v>74</v>
+      </c>
+      <c r="H95">
+        <v>1001765834</v>
+      </c>
+      <c r="I95">
+        <v>4692580560</v>
+      </c>
+      <c r="J95" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K95">
+        <v>848</v>
+      </c>
+      <c r="L95" t="s">
+        <v>34</v>
+      </c>
+      <c r="M95" t="s">
+        <v>35</v>
+      </c>
+      <c r="N95" t="s">
+        <v>36</v>
+      </c>
+      <c r="O95">
+        <v>76013</v>
+      </c>
+      <c r="P95" t="s">
+        <v>39</v>
+      </c>
+      <c r="T95" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="96" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>94</v>
+      </c>
+      <c r="B96" t="s">
+        <v>29</v>
+      </c>
+      <c r="C96" t="s">
+        <v>44</v>
+      </c>
+      <c r="D96" t="s">
+        <v>49</v>
+      </c>
+      <c r="E96" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F96" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="G96" t="s">
+        <v>74</v>
+      </c>
+      <c r="H96">
+        <v>1001765834</v>
+      </c>
+      <c r="I96">
+        <v>4692580560</v>
+      </c>
+      <c r="J96" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K96">
+        <v>848</v>
+      </c>
+      <c r="L96" t="s">
+        <v>34</v>
+      </c>
+      <c r="M96" t="s">
+        <v>35</v>
+      </c>
+      <c r="N96" t="s">
+        <v>36</v>
+      </c>
+      <c r="O96">
+        <v>76013</v>
+      </c>
+      <c r="P96" t="s">
+        <v>39</v>
+      </c>
+      <c r="T96" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="97" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>95</v>
+      </c>
+      <c r="B97" t="s">
+        <v>29</v>
+      </c>
+      <c r="C97" t="s">
+        <v>44</v>
+      </c>
+      <c r="D97" t="s">
+        <v>49</v>
+      </c>
+      <c r="E97" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F97" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="G97" t="s">
+        <v>74</v>
+      </c>
+      <c r="H97">
+        <v>1001765834</v>
+      </c>
+      <c r="I97">
+        <v>4692580560</v>
+      </c>
+      <c r="J97" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K97">
+        <v>848</v>
+      </c>
+      <c r="L97" t="s">
+        <v>34</v>
+      </c>
+      <c r="M97" t="s">
+        <v>35</v>
+      </c>
+      <c r="N97" t="s">
+        <v>36</v>
+      </c>
+      <c r="O97">
+        <v>76013</v>
+      </c>
+      <c r="P97" t="s">
+        <v>39</v>
+      </c>
+      <c r="T97" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="98" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>96</v>
+      </c>
+      <c r="B98" t="s">
+        <v>29</v>
+      </c>
+      <c r="C98" t="s">
+        <v>44</v>
+      </c>
+      <c r="D98" t="s">
+        <v>49</v>
+      </c>
+      <c r="E98" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F98" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="G98" t="s">
+        <v>74</v>
+      </c>
+      <c r="H98">
+        <v>1001765834</v>
+      </c>
+      <c r="I98">
+        <v>4692580560</v>
+      </c>
+      <c r="J98" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K98">
+        <v>848</v>
+      </c>
+      <c r="L98" t="s">
+        <v>34</v>
+      </c>
+      <c r="M98" t="s">
+        <v>35</v>
+      </c>
+      <c r="N98" t="s">
+        <v>36</v>
+      </c>
+      <c r="O98">
+        <v>76013</v>
+      </c>
+      <c r="P98" t="s">
+        <v>39</v>
+      </c>
+      <c r="T98" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="99" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>97</v>
+      </c>
+      <c r="B99" t="s">
+        <v>29</v>
+      </c>
+      <c r="C99" t="s">
+        <v>44</v>
+      </c>
+      <c r="D99" t="s">
+        <v>49</v>
+      </c>
+      <c r="E99" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F99" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="G99" t="s">
+        <v>74</v>
+      </c>
+      <c r="H99">
+        <v>1001765834</v>
+      </c>
+      <c r="I99">
+        <v>4692580560</v>
+      </c>
+      <c r="J99" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K99">
+        <v>848</v>
+      </c>
+      <c r="L99" t="s">
+        <v>34</v>
+      </c>
+      <c r="M99" t="s">
+        <v>35</v>
+      </c>
+      <c r="N99" t="s">
+        <v>36</v>
+      </c>
+      <c r="O99">
+        <v>76013</v>
+      </c>
+      <c r="P99" t="s">
+        <v>39</v>
+      </c>
+      <c r="T99" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="100" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>98</v>
+      </c>
+      <c r="B100" t="s">
+        <v>29</v>
+      </c>
+      <c r="C100" t="s">
+        <v>44</v>
+      </c>
+      <c r="D100" t="s">
+        <v>49</v>
+      </c>
+      <c r="E100" t="s">
+        <v>31</v>
+      </c>
+      <c r="F100" t="s">
+        <v>32</v>
+      </c>
+      <c r="G100" t="s">
+        <v>74</v>
+      </c>
+      <c r="H100">
+        <v>1001765834</v>
+      </c>
+      <c r="I100">
+        <v>4692580560</v>
+      </c>
+      <c r="J100" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K100">
+        <v>848</v>
+      </c>
+      <c r="L100" t="s">
+        <v>34</v>
+      </c>
+      <c r="M100" t="s">
+        <v>35</v>
+      </c>
+      <c r="N100" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="O100">
+        <v>76013</v>
+      </c>
+      <c r="P100" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB100" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="101" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>99</v>
+      </c>
+      <c r="B101" t="s">
+        <v>29</v>
+      </c>
+      <c r="C101" t="s">
+        <v>44</v>
+      </c>
+      <c r="D101" t="s">
+        <v>49</v>
+      </c>
+      <c r="E101" t="s">
+        <v>31</v>
+      </c>
+      <c r="F101" t="s">
+        <v>32</v>
+      </c>
+      <c r="G101" t="s">
+        <v>74</v>
+      </c>
+      <c r="H101">
+        <v>1001765834</v>
+      </c>
+      <c r="I101">
+        <v>4692580560</v>
+      </c>
+      <c r="J101" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K101">
+        <v>848</v>
+      </c>
+      <c r="L101" t="s">
+        <v>34</v>
+      </c>
+      <c r="M101" t="s">
+        <v>35</v>
+      </c>
+      <c r="N101" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="O101">
+        <v>76013</v>
+      </c>
+      <c r="P101" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB101" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="102" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>100</v>
+      </c>
+      <c r="B102" t="s">
+        <v>29</v>
+      </c>
+      <c r="C102" t="s">
+        <v>44</v>
+      </c>
+      <c r="D102" t="s">
+        <v>49</v>
+      </c>
+      <c r="E102" t="s">
+        <v>31</v>
+      </c>
+      <c r="F102" t="s">
+        <v>32</v>
+      </c>
+      <c r="G102" t="s">
+        <v>74</v>
+      </c>
+      <c r="H102">
+        <v>1001765834</v>
+      </c>
+      <c r="I102">
+        <v>4692580560</v>
+      </c>
+      <c r="J102" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K102">
+        <v>848</v>
+      </c>
+      <c r="L102" t="s">
+        <v>34</v>
+      </c>
+      <c r="M102" t="s">
+        <v>35</v>
+      </c>
+      <c r="N102" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="O102">
+        <v>76013</v>
+      </c>
+      <c r="P102" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB102" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
